--- a/NatmiData/natmiOut_TPM/YoungD2/LR-pairs_lrc2p/Ntng2-Lrrc4.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD2/LR-pairs_lrc2p/Ntng2-Lrrc4.xlsx
@@ -543,16 +543,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>8.785125666666667</v>
+        <v>6.190805666666667</v>
       </c>
       <c r="H2">
-        <v>26.355377</v>
+        <v>18.572417</v>
       </c>
       <c r="I2">
-        <v>0.2076758938243006</v>
+        <v>0.144757559252482</v>
       </c>
       <c r="J2">
-        <v>0.2076758938243006</v>
+        <v>0.144757559252482</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -561,28 +561,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>1.281462666666667</v>
+        <v>1.668774</v>
       </c>
       <c r="N2">
-        <v>3.844388</v>
+        <v>5.006322</v>
       </c>
       <c r="O2">
-        <v>0.0610039610171349</v>
+        <v>0.06053597957783332</v>
       </c>
       <c r="P2">
-        <v>0.06100396101713489</v>
+        <v>0.06053597957783333</v>
       </c>
       <c r="Q2">
-        <v>11.25781056380845</v>
+        <v>10.331055535586</v>
       </c>
       <c r="R2">
-        <v>101.320295074276</v>
+        <v>92.979499820274</v>
       </c>
       <c r="S2">
-        <v>0.01266905213105628</v>
+        <v>0.008763040650645244</v>
       </c>
       <c r="T2">
-        <v>0.01266905213105628</v>
+        <v>0.008763040650645246</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -605,16 +605,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>8.785125666666667</v>
+        <v>6.190805666666667</v>
       </c>
       <c r="H3">
-        <v>26.355377</v>
+        <v>18.572417</v>
       </c>
       <c r="I3">
-        <v>0.2076758938243006</v>
+        <v>0.144757559252482</v>
       </c>
       <c r="J3">
-        <v>0.2076758938243006</v>
+        <v>0.144757559252482</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -629,22 +629,22 @@
         <v>16.660129</v>
       </c>
       <c r="O3">
-        <v>0.2643681803336288</v>
+        <v>0.2014527289511279</v>
       </c>
       <c r="P3">
-        <v>0.2643681803336288</v>
+        <v>0.201452728951128</v>
       </c>
       <c r="Q3">
-        <v>48.78710896262589</v>
+        <v>34.37987367353256</v>
       </c>
       <c r="R3">
-        <v>439.083980663633</v>
+        <v>309.418863061793</v>
       </c>
       <c r="S3">
-        <v>0.05490289814949024</v>
+        <v>0.02916180534771709</v>
       </c>
       <c r="T3">
-        <v>0.05490289814949024</v>
+        <v>0.02916180534771709</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -667,16 +667,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>8.785125666666667</v>
+        <v>6.190805666666667</v>
       </c>
       <c r="H4">
-        <v>26.355377</v>
+        <v>18.572417</v>
       </c>
       <c r="I4">
-        <v>0.2076758938243006</v>
+        <v>0.144757559252482</v>
       </c>
       <c r="J4">
-        <v>0.2076758938243006</v>
+        <v>0.144757559252482</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -685,28 +685,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>5.652582666666667</v>
+        <v>9.526858666666667</v>
       </c>
       <c r="N4">
-        <v>16.957748</v>
+        <v>28.580576</v>
       </c>
       <c r="O4">
-        <v>0.2690908924724553</v>
+        <v>0.3455936643824974</v>
       </c>
       <c r="P4">
-        <v>0.2690908924724552</v>
+        <v>0.3455936643824974</v>
       </c>
       <c r="Q4">
-        <v>49.65864906788845</v>
+        <v>58.97893061913245</v>
       </c>
       <c r="R4">
-        <v>446.9278416109961</v>
+        <v>530.810375572192</v>
       </c>
       <c r="S4">
-        <v>0.0558836916141959</v>
+        <v>0.05002729534913174</v>
       </c>
       <c r="T4">
-        <v>0.05588369161419589</v>
+        <v>0.05002729534913174</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -729,16 +729,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>8.785125666666667</v>
+        <v>6.190805666666667</v>
       </c>
       <c r="H5">
-        <v>26.355377</v>
+        <v>18.572417</v>
       </c>
       <c r="I5">
-        <v>0.2076758938243006</v>
+        <v>0.144757559252482</v>
       </c>
       <c r="J5">
-        <v>0.2076758938243006</v>
+        <v>0.144757559252482</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -747,28 +747,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>2.234552</v>
+        <v>2.732583</v>
       </c>
       <c r="N5">
-        <v>6.703656</v>
+        <v>8.197749</v>
       </c>
       <c r="O5">
-        <v>0.1063757272409243</v>
+        <v>0.0991264177670161</v>
       </c>
       <c r="P5">
-        <v>0.1063757272409243</v>
+        <v>0.0991264177670161</v>
       </c>
       <c r="Q5">
-        <v>19.63082012870133</v>
+        <v>16.916890321037</v>
       </c>
       <c r="R5">
-        <v>176.677381158312</v>
+        <v>152.252012889333</v>
       </c>
       <c r="S5">
-        <v>0.02209167423596895</v>
+        <v>0.01434929829339511</v>
       </c>
       <c r="T5">
-        <v>0.02209167423596895</v>
+        <v>0.01434929829339511</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -791,16 +791,16 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>8.785125666666667</v>
+        <v>6.190805666666667</v>
       </c>
       <c r="H6">
-        <v>26.355377</v>
+        <v>18.572417</v>
       </c>
       <c r="I6">
-        <v>0.2076758938243006</v>
+        <v>0.144757559252482</v>
       </c>
       <c r="J6">
-        <v>0.2076758938243006</v>
+        <v>0.144757559252482</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -809,28 +809,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>3.032031</v>
+        <v>2.300806</v>
       </c>
       <c r="N6">
-        <v>9.096093</v>
+        <v>6.902418</v>
       </c>
       <c r="O6">
-        <v>0.1443396719530478</v>
+        <v>0.08346339589935868</v>
       </c>
       <c r="P6">
-        <v>0.1443396719530478</v>
+        <v>0.08346339589935868</v>
       </c>
       <c r="Q6">
-        <v>26.636773360229</v>
+        <v>14.24384282270067</v>
       </c>
       <c r="R6">
-        <v>239.730960242061</v>
+        <v>128.194585404306</v>
       </c>
       <c r="S6">
-        <v>0.02997587038715553</v>
+        <v>0.01208195747731477</v>
       </c>
       <c r="T6">
-        <v>0.02997587038715553</v>
+        <v>0.01208195747731477</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -853,16 +853,16 @@
         <v>1</v>
       </c>
       <c r="G7">
-        <v>8.785125666666667</v>
+        <v>6.190805666666667</v>
       </c>
       <c r="H7">
-        <v>26.355377</v>
+        <v>18.572417</v>
       </c>
       <c r="I7">
-        <v>0.2076758938243006</v>
+        <v>0.144757559252482</v>
       </c>
       <c r="J7">
-        <v>0.2076758938243006</v>
+        <v>0.144757559252482</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -871,28 +871,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>3.252216</v>
+        <v>5.784249333333332</v>
       </c>
       <c r="N7">
-        <v>9.756648</v>
+        <v>17.352748</v>
       </c>
       <c r="O7">
-        <v>0.154821566982809</v>
+        <v>0.2098278134221666</v>
       </c>
       <c r="P7">
-        <v>0.154821566982809</v>
+        <v>0.2098278134221666</v>
       </c>
       <c r="Q7">
-        <v>28.57112625514401</v>
+        <v>35.80916355021289</v>
       </c>
       <c r="R7">
-        <v>257.140136296296</v>
+        <v>322.282471951916</v>
       </c>
       <c r="S7">
-        <v>0.03215270730643368</v>
+        <v>0.03037416213427801</v>
       </c>
       <c r="T7">
-        <v>0.03215270730643368</v>
+        <v>0.03037416213427801</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -921,10 +921,10 @@
         <v>6.991063</v>
       </c>
       <c r="I8">
-        <v>0.05508838888197259</v>
+        <v>0.05448990384290502</v>
       </c>
       <c r="J8">
-        <v>0.05508838888197259</v>
+        <v>0.05448990384290501</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -933,28 +933,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>1.281462666666667</v>
+        <v>1.668774</v>
       </c>
       <c r="N8">
-        <v>3.844388</v>
+        <v>5.006322</v>
       </c>
       <c r="O8">
-        <v>0.0610039610171349</v>
+        <v>0.06053597957783332</v>
       </c>
       <c r="P8">
-        <v>0.06100396101713489</v>
+        <v>0.06053597957783333</v>
       </c>
       <c r="Q8">
-        <v>2.986262078271556</v>
+        <v>3.888834722254</v>
       </c>
       <c r="R8">
-        <v>26.87635870444401</v>
+        <v>34.999512500286</v>
       </c>
       <c r="S8">
-        <v>0.003360609927852624</v>
+        <v>0.003298599706232199</v>
       </c>
       <c r="T8">
-        <v>0.003360609927852623</v>
+        <v>0.003298599706232199</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -983,10 +983,10 @@
         <v>6.991063</v>
       </c>
       <c r="I9">
-        <v>0.05508838888197259</v>
+        <v>0.05448990384290502</v>
       </c>
       <c r="J9">
-        <v>0.05508838888197259</v>
+        <v>0.05448990384290501</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -1001,10 +1001,10 @@
         <v>16.660129</v>
       </c>
       <c r="O9">
-        <v>0.2643681803336288</v>
+        <v>0.2014527289511279</v>
       </c>
       <c r="P9">
-        <v>0.2643681803336288</v>
+        <v>0.201452728951128</v>
       </c>
       <c r="Q9">
         <v>12.94133460301411</v>
@@ -1013,10 +1013,10 @@
         <v>116.472011427127</v>
       </c>
       <c r="S9">
-        <v>0.0145636171262384</v>
+        <v>0.01097713982943777</v>
       </c>
       <c r="T9">
-        <v>0.0145636171262384</v>
+        <v>0.01097713982943777</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1045,10 +1045,10 @@
         <v>6.991063</v>
       </c>
       <c r="I10">
-        <v>0.05508838888197259</v>
+        <v>0.05448990384290502</v>
       </c>
       <c r="J10">
-        <v>0.05508838888197259</v>
+        <v>0.05448990384290501</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1057,28 +1057,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>5.652582666666667</v>
+        <v>9.526858666666667</v>
       </c>
       <c r="N10">
-        <v>16.957748</v>
+        <v>28.580576</v>
       </c>
       <c r="O10">
-        <v>0.2690908924724553</v>
+        <v>0.3455936643824974</v>
       </c>
       <c r="P10">
-        <v>0.2690908924724552</v>
+        <v>0.3455936643824974</v>
       </c>
       <c r="Q10">
-        <v>13.17252051179156</v>
+        <v>22.20095637692089</v>
       </c>
       <c r="R10">
-        <v>118.552684606124</v>
+        <v>199.808607392288</v>
       </c>
       <c r="S10">
-        <v>0.01482378372911969</v>
+        <v>0.01883136554091948</v>
       </c>
       <c r="T10">
-        <v>0.01482378372911968</v>
+        <v>0.01883136554091947</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1107,10 +1107,10 @@
         <v>6.991063</v>
       </c>
       <c r="I11">
-        <v>0.05508838888197259</v>
+        <v>0.05448990384290502</v>
       </c>
       <c r="J11">
-        <v>0.05508838888197259</v>
+        <v>0.05448990384290501</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1119,28 +1119,28 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>2.234552</v>
+        <v>2.732583</v>
       </c>
       <c r="N11">
-        <v>6.703656</v>
+        <v>8.197749</v>
       </c>
       <c r="O11">
-        <v>0.1063757272409243</v>
+        <v>0.0991264177670161</v>
       </c>
       <c r="P11">
-        <v>0.1063757272409243</v>
+        <v>0.0991264177670161</v>
       </c>
       <c r="Q11">
-        <v>5.207297936258667</v>
+        <v>6.367886635243001</v>
       </c>
       <c r="R11">
-        <v>46.865681426328</v>
+        <v>57.310979717187</v>
       </c>
       <c r="S11">
-        <v>0.005860067429850682</v>
+        <v>0.005401388972416338</v>
       </c>
       <c r="T11">
-        <v>0.005860067429850682</v>
+        <v>0.005401388972416338</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1169,10 +1169,10 @@
         <v>6.991063</v>
       </c>
       <c r="I12">
-        <v>0.05508838888197259</v>
+        <v>0.05448990384290502</v>
       </c>
       <c r="J12">
-        <v>0.05508838888197259</v>
+        <v>0.05448990384290501</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1181,28 +1181,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>3.032031</v>
+        <v>2.300806</v>
       </c>
       <c r="N12">
-        <v>9.096093</v>
+        <v>6.902418</v>
       </c>
       <c r="O12">
-        <v>0.1443396719530478</v>
+        <v>0.08346339589935868</v>
       </c>
       <c r="P12">
-        <v>0.1443396719530478</v>
+        <v>0.08346339589935868</v>
       </c>
       <c r="Q12">
-        <v>7.065706579651001</v>
+        <v>5.361693232259334</v>
       </c>
       <c r="R12">
-        <v>63.591359216859</v>
+        <v>48.255239090334</v>
       </c>
       <c r="S12">
-        <v>0.00795143997964585</v>
+        <v>0.004547912416958367</v>
       </c>
       <c r="T12">
-        <v>0.007951439979645848</v>
+        <v>0.004547912416958367</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1231,10 +1231,10 @@
         <v>6.991063</v>
       </c>
       <c r="I13">
-        <v>0.05508838888197259</v>
+        <v>0.05448990384290502</v>
       </c>
       <c r="J13">
-        <v>0.05508838888197259</v>
+        <v>0.05448990384290501</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1243,28 +1243,28 @@
         <v>1</v>
       </c>
       <c r="M13">
-        <v>3.252216</v>
+        <v>5.784249333333332</v>
       </c>
       <c r="N13">
-        <v>9.756648</v>
+        <v>17.352748</v>
       </c>
       <c r="O13">
-        <v>0.154821566982809</v>
+        <v>0.2098278134221666</v>
       </c>
       <c r="P13">
-        <v>0.154821566982809</v>
+        <v>0.2098278134221666</v>
       </c>
       <c r="Q13">
-        <v>7.578815648536001</v>
+        <v>13.47935049901378</v>
       </c>
       <c r="R13">
-        <v>68.20934083682401</v>
+        <v>121.314154491124</v>
       </c>
       <c r="S13">
-        <v>0.008528870689265351</v>
+        <v>0.01143349737694087</v>
       </c>
       <c r="T13">
-        <v>0.008528870689265351</v>
+        <v>0.01143349737694087</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1287,16 +1287,16 @@
         <v>1</v>
       </c>
       <c r="G14">
-        <v>4.848472666666667</v>
+        <v>8.307113666666668</v>
       </c>
       <c r="H14">
-        <v>14.545418</v>
+        <v>24.921341</v>
       </c>
       <c r="I14">
-        <v>0.1146154230386486</v>
+        <v>0.1942424885494876</v>
       </c>
       <c r="J14">
-        <v>0.1146154230386486</v>
+        <v>0.1942424885494876</v>
       </c>
       <c r="K14">
         <v>3</v>
@@ -1305,28 +1305,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>1.281462666666667</v>
+        <v>1.668774</v>
       </c>
       <c r="N14">
-        <v>3.844388</v>
+        <v>5.006322</v>
       </c>
       <c r="O14">
-        <v>0.0610039610171349</v>
+        <v>0.06053597957783332</v>
       </c>
       <c r="P14">
-        <v>0.06100396101713489</v>
+        <v>0.06053597957783333</v>
       </c>
       <c r="Q14">
-        <v>6.213136712687112</v>
+        <v>13.862695301978</v>
       </c>
       <c r="R14">
-        <v>55.918230414184</v>
+        <v>124.764257717802</v>
       </c>
       <c r="S14">
-        <v>0.006991994799012147</v>
+        <v>0.0117586593199793</v>
       </c>
       <c r="T14">
-        <v>0.006991994799012146</v>
+        <v>0.0117586593199793</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1349,16 +1349,16 @@
         <v>1</v>
       </c>
       <c r="G15">
-        <v>4.848472666666667</v>
+        <v>8.307113666666668</v>
       </c>
       <c r="H15">
-        <v>14.545418</v>
+        <v>24.921341</v>
       </c>
       <c r="I15">
-        <v>0.1146154230386486</v>
+        <v>0.1942424885494876</v>
       </c>
       <c r="J15">
-        <v>0.1146154230386486</v>
+        <v>0.1942424885494876</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1373,22 +1373,22 @@
         <v>16.660129</v>
       </c>
       <c r="O15">
-        <v>0.2643681803336288</v>
+        <v>0.2014527289511279</v>
       </c>
       <c r="P15">
-        <v>0.2643681803336288</v>
+        <v>0.201452728951128</v>
       </c>
       <c r="Q15">
-        <v>26.92539335988022</v>
+        <v>46.13252843477656</v>
       </c>
       <c r="R15">
-        <v>242.328540238922</v>
+        <v>415.1927559129891</v>
       </c>
       <c r="S15">
-        <v>0.03030067082689662</v>
+        <v>0.03913067939655249</v>
       </c>
       <c r="T15">
-        <v>0.03030067082689662</v>
+        <v>0.03913067939655249</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1411,16 +1411,16 @@
         <v>1</v>
       </c>
       <c r="G16">
-        <v>4.848472666666667</v>
+        <v>8.307113666666668</v>
       </c>
       <c r="H16">
-        <v>14.545418</v>
+        <v>24.921341</v>
       </c>
       <c r="I16">
-        <v>0.1146154230386486</v>
+        <v>0.1942424885494876</v>
       </c>
       <c r="J16">
-        <v>0.1146154230386486</v>
+        <v>0.1942424885494876</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1429,28 +1429,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>5.652582666666667</v>
+        <v>9.526858666666667</v>
       </c>
       <c r="N16">
-        <v>16.957748</v>
+        <v>28.580576</v>
       </c>
       <c r="O16">
-        <v>0.2690908924724553</v>
+        <v>0.3455936643824974</v>
       </c>
       <c r="P16">
-        <v>0.2690908924724552</v>
+        <v>0.3455936643824974</v>
       </c>
       <c r="Q16">
-        <v>27.40639255540712</v>
+        <v>79.14069783026846</v>
       </c>
       <c r="R16">
-        <v>246.657532998664</v>
+        <v>712.266280472416</v>
       </c>
       <c r="S16">
-        <v>0.03084196647657797</v>
+        <v>0.06712897339659271</v>
       </c>
       <c r="T16">
-        <v>0.03084196647657797</v>
+        <v>0.06712897339659271</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1473,16 +1473,16 @@
         <v>1</v>
       </c>
       <c r="G17">
-        <v>4.848472666666667</v>
+        <v>8.307113666666668</v>
       </c>
       <c r="H17">
-        <v>14.545418</v>
+        <v>24.921341</v>
       </c>
       <c r="I17">
-        <v>0.1146154230386486</v>
+        <v>0.1942424885494876</v>
       </c>
       <c r="J17">
-        <v>0.1146154230386486</v>
+        <v>0.1942424885494876</v>
       </c>
       <c r="K17">
         <v>3</v>
@@ -1491,28 +1491,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>2.234552</v>
+        <v>2.732583</v>
       </c>
       <c r="N17">
-        <v>6.703656</v>
+        <v>8.197749</v>
       </c>
       <c r="O17">
-        <v>0.1063757272409243</v>
+        <v>0.0991264177670161</v>
       </c>
       <c r="P17">
-        <v>0.1063757272409243</v>
+        <v>0.0991264177670161</v>
       </c>
       <c r="Q17">
-        <v>10.83416429424533</v>
+        <v>22.699877584601</v>
       </c>
       <c r="R17">
-        <v>97.50747864820799</v>
+        <v>204.298898261409</v>
       </c>
       <c r="S17">
-        <v>0.01219229897876243</v>
+        <v>0.01925456206806135</v>
       </c>
       <c r="T17">
-        <v>0.01219229897876243</v>
+        <v>0.01925456206806134</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1535,16 +1535,16 @@
         <v>1</v>
       </c>
       <c r="G18">
-        <v>4.848472666666667</v>
+        <v>8.307113666666668</v>
       </c>
       <c r="H18">
-        <v>14.545418</v>
+        <v>24.921341</v>
       </c>
       <c r="I18">
-        <v>0.1146154230386486</v>
+        <v>0.1942424885494876</v>
       </c>
       <c r="J18">
-        <v>0.1146154230386486</v>
+        <v>0.1942424885494876</v>
       </c>
       <c r="K18">
         <v>3</v>
@@ -1553,28 +1553,28 @@
         <v>1</v>
       </c>
       <c r="M18">
-        <v>3.032031</v>
+        <v>2.300806</v>
       </c>
       <c r="N18">
-        <v>9.096093</v>
+        <v>6.902418</v>
       </c>
       <c r="O18">
-        <v>0.1443396719530478</v>
+        <v>0.08346339589935868</v>
       </c>
       <c r="P18">
-        <v>0.1443396719530478</v>
+        <v>0.08346339589935868</v>
       </c>
       <c r="Q18">
-        <v>14.700719427986</v>
+        <v>19.11305696694867</v>
       </c>
       <c r="R18">
-        <v>132.306474851874</v>
+        <v>172.017512702538</v>
       </c>
       <c r="S18">
-        <v>0.01654355256215834</v>
+        <v>0.01621213772228253</v>
       </c>
       <c r="T18">
-        <v>0.01654355256215834</v>
+        <v>0.01621213772228253</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1597,16 +1597,16 @@
         <v>1</v>
       </c>
       <c r="G19">
-        <v>4.848472666666667</v>
+        <v>8.307113666666668</v>
       </c>
       <c r="H19">
-        <v>14.545418</v>
+        <v>24.921341</v>
       </c>
       <c r="I19">
-        <v>0.1146154230386486</v>
+        <v>0.1942424885494876</v>
       </c>
       <c r="J19">
-        <v>0.1146154230386486</v>
+        <v>0.1942424885494876</v>
       </c>
       <c r="K19">
         <v>3</v>
@@ -1615,28 +1615,28 @@
         <v>1</v>
       </c>
       <c r="M19">
-        <v>3.252216</v>
+        <v>5.784249333333332</v>
       </c>
       <c r="N19">
-        <v>9.756648</v>
+        <v>17.352748</v>
       </c>
       <c r="O19">
-        <v>0.154821566982809</v>
+        <v>0.2098278134221666</v>
       </c>
       <c r="P19">
-        <v>0.154821566982809</v>
+        <v>0.2098278134221666</v>
       </c>
       <c r="Q19">
-        <v>15.768280382096</v>
+        <v>48.05041668834089</v>
       </c>
       <c r="R19">
-        <v>141.914523438864</v>
+        <v>432.453750195068</v>
       </c>
       <c r="S19">
-        <v>0.01774493939524113</v>
+        <v>0.04075747664601921</v>
       </c>
       <c r="T19">
-        <v>0.01774493939524113</v>
+        <v>0.04075747664601921</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1659,16 +1659,16 @@
         <v>1</v>
       </c>
       <c r="G20">
-        <v>1.854396666666667</v>
+        <v>1.266131666666667</v>
       </c>
       <c r="H20">
-        <v>5.563190000000001</v>
+        <v>3.798395</v>
       </c>
       <c r="I20">
-        <v>0.04383699219193149</v>
+        <v>0.02960553757094896</v>
       </c>
       <c r="J20">
-        <v>0.04383699219193149</v>
+        <v>0.02960553757094896</v>
       </c>
       <c r="K20">
         <v>3</v>
@@ -1677,28 +1677,28 @@
         <v>1</v>
       </c>
       <c r="M20">
-        <v>1.281462666666667</v>
+        <v>1.668774</v>
       </c>
       <c r="N20">
-        <v>3.844388</v>
+        <v>5.006322</v>
       </c>
       <c r="O20">
-        <v>0.0610039610171349</v>
+        <v>0.06053597957783332</v>
       </c>
       <c r="P20">
-        <v>0.06100396101713489</v>
+        <v>0.06053597957783333</v>
       </c>
       <c r="Q20">
-        <v>2.376340097524445</v>
+        <v>2.11288760591</v>
       </c>
       <c r="R20">
-        <v>21.38706087772</v>
+        <v>19.01598845319</v>
       </c>
       <c r="S20">
-        <v>0.002674230162785036</v>
+        <v>0.001792200217785744</v>
       </c>
       <c r="T20">
-        <v>0.002674230162785035</v>
+        <v>0.001792200217785744</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1721,16 +1721,16 @@
         <v>1</v>
       </c>
       <c r="G21">
-        <v>1.854396666666667</v>
+        <v>1.266131666666667</v>
       </c>
       <c r="H21">
-        <v>5.563190000000001</v>
+        <v>3.798395</v>
       </c>
       <c r="I21">
-        <v>0.04383699219193149</v>
+        <v>0.02960553757094896</v>
       </c>
       <c r="J21">
-        <v>0.04383699219193149</v>
+        <v>0.02960553757094896</v>
       </c>
       <c r="K21">
         <v>3</v>
@@ -1745,22 +1745,22 @@
         <v>16.660129</v>
       </c>
       <c r="O21">
-        <v>0.2643681803336288</v>
+        <v>0.2014527289511279</v>
       </c>
       <c r="P21">
-        <v>0.2643681803336288</v>
+        <v>0.201452728951128</v>
       </c>
       <c r="Q21">
-        <v>10.29816256127889</v>
+        <v>7.031305632550556</v>
       </c>
       <c r="R21">
-        <v>92.68346305151002</v>
+        <v>63.28175069295501</v>
       </c>
       <c r="S21">
-        <v>0.01158910585708042</v>
+        <v>0.005964116335732816</v>
       </c>
       <c r="T21">
-        <v>0.01158910585708042</v>
+        <v>0.005964116335732817</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1783,16 +1783,16 @@
         <v>1</v>
       </c>
       <c r="G22">
-        <v>1.854396666666667</v>
+        <v>1.266131666666667</v>
       </c>
       <c r="H22">
-        <v>5.563190000000001</v>
+        <v>3.798395</v>
       </c>
       <c r="I22">
-        <v>0.04383699219193149</v>
+        <v>0.02960553757094896</v>
       </c>
       <c r="J22">
-        <v>0.04383699219193149</v>
+        <v>0.02960553757094896</v>
       </c>
       <c r="K22">
         <v>3</v>
@@ -1801,28 +1801,28 @@
         <v>1</v>
       </c>
       <c r="M22">
-        <v>5.652582666666667</v>
+        <v>9.526858666666667</v>
       </c>
       <c r="N22">
-        <v>16.957748</v>
+        <v>28.580576</v>
       </c>
       <c r="O22">
-        <v>0.2690908924724553</v>
+        <v>0.3455936643824974</v>
       </c>
       <c r="P22">
-        <v>0.2690908924724552</v>
+        <v>0.3455936643824974</v>
       </c>
       <c r="Q22">
-        <v>10.48213045512445</v>
+        <v>12.06225744172445</v>
       </c>
       <c r="R22">
-        <v>94.33917409612002</v>
+        <v>108.56031697552</v>
       </c>
       <c r="S22">
-        <v>0.0117961353522349</v>
+        <v>0.01023148621515796</v>
       </c>
       <c r="T22">
-        <v>0.0117961353522349</v>
+        <v>0.01023148621515796</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1845,16 +1845,16 @@
         <v>1</v>
       </c>
       <c r="G23">
-        <v>1.854396666666667</v>
+        <v>1.266131666666667</v>
       </c>
       <c r="H23">
-        <v>5.563190000000001</v>
+        <v>3.798395</v>
       </c>
       <c r="I23">
-        <v>0.04383699219193149</v>
+        <v>0.02960553757094896</v>
       </c>
       <c r="J23">
-        <v>0.04383699219193149</v>
+        <v>0.02960553757094896</v>
       </c>
       <c r="K23">
         <v>3</v>
@@ -1863,28 +1863,28 @@
         <v>1</v>
       </c>
       <c r="M23">
-        <v>2.234552</v>
+        <v>2.732583</v>
       </c>
       <c r="N23">
-        <v>6.703656</v>
+        <v>8.197749</v>
       </c>
       <c r="O23">
-        <v>0.1063757272409243</v>
+        <v>0.0991264177670161</v>
       </c>
       <c r="P23">
-        <v>0.1063757272409243</v>
+        <v>0.0991264177670161</v>
       </c>
       <c r="Q23">
-        <v>4.143745780293334</v>
+        <v>3.459809868095</v>
       </c>
       <c r="R23">
-        <v>37.29371202264</v>
+        <v>31.138288812855</v>
       </c>
       <c r="S23">
-        <v>0.004663191924471431</v>
+        <v>0.002934690885474978</v>
       </c>
       <c r="T23">
-        <v>0.004663191924471431</v>
+        <v>0.002934690885474978</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1907,16 +1907,16 @@
         <v>1</v>
       </c>
       <c r="G24">
-        <v>1.854396666666667</v>
+        <v>1.266131666666667</v>
       </c>
       <c r="H24">
-        <v>5.563190000000001</v>
+        <v>3.798395</v>
       </c>
       <c r="I24">
-        <v>0.04383699219193149</v>
+        <v>0.02960553757094896</v>
       </c>
       <c r="J24">
-        <v>0.04383699219193149</v>
+        <v>0.02960553757094896</v>
       </c>
       <c r="K24">
         <v>3</v>
@@ -1925,28 +1925,28 @@
         <v>1</v>
       </c>
       <c r="M24">
-        <v>3.032031</v>
+        <v>2.300806</v>
       </c>
       <c r="N24">
-        <v>9.096093</v>
+        <v>6.902418</v>
       </c>
       <c r="O24">
-        <v>0.1443396719530478</v>
+        <v>0.08346339589935868</v>
       </c>
       <c r="P24">
-        <v>0.1443396719530478</v>
+        <v>0.08346339589935868</v>
       </c>
       <c r="Q24">
-        <v>5.622588179630001</v>
+        <v>2.913123335456667</v>
       </c>
       <c r="R24">
-        <v>50.60329361667</v>
+        <v>26.21811001911</v>
       </c>
       <c r="S24">
-        <v>0.00632741707239171</v>
+        <v>0.002470978703097451</v>
       </c>
       <c r="T24">
-        <v>0.006327417072391708</v>
+        <v>0.002470978703097451</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1969,16 +1969,16 @@
         <v>1</v>
       </c>
       <c r="G25">
-        <v>1.854396666666667</v>
+        <v>1.266131666666667</v>
       </c>
       <c r="H25">
-        <v>5.563190000000001</v>
+        <v>3.798395</v>
       </c>
       <c r="I25">
-        <v>0.04383699219193149</v>
+        <v>0.02960553757094896</v>
       </c>
       <c r="J25">
-        <v>0.04383699219193149</v>
+        <v>0.02960553757094896</v>
       </c>
       <c r="K25">
         <v>3</v>
@@ -1987,28 +1987,28 @@
         <v>1</v>
       </c>
       <c r="M25">
-        <v>3.252216</v>
+        <v>5.784249333333332</v>
       </c>
       <c r="N25">
-        <v>9.756648</v>
+        <v>17.352748</v>
       </c>
       <c r="O25">
-        <v>0.154821566982809</v>
+        <v>0.2098278134221666</v>
       </c>
       <c r="P25">
-        <v>0.154821566982809</v>
+        <v>0.2098278134221666</v>
       </c>
       <c r="Q25">
-        <v>6.030898509680001</v>
+        <v>7.323621248828887</v>
       </c>
       <c r="R25">
-        <v>54.27808658712001</v>
+        <v>65.91259123946</v>
       </c>
       <c r="S25">
-        <v>0.006786911822967996</v>
+        <v>0.006212065213700022</v>
       </c>
       <c r="T25">
-        <v>0.006786911822967996</v>
+        <v>0.006212065213700022</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -2031,16 +2031,16 @@
         <v>1</v>
       </c>
       <c r="G26">
-        <v>19.615261</v>
+        <v>23.20046733333333</v>
       </c>
       <c r="H26">
-        <v>58.845783</v>
+        <v>69.60140199999999</v>
       </c>
       <c r="I26">
-        <v>0.4636947740233741</v>
+        <v>0.5424888464474396</v>
       </c>
       <c r="J26">
-        <v>0.4636947740233741</v>
+        <v>0.5424888464474396</v>
       </c>
       <c r="K26">
         <v>3</v>
@@ -2049,28 +2049,28 @@
         <v>1</v>
       </c>
       <c r="M26">
-        <v>1.281462666666667</v>
+        <v>1.668774</v>
       </c>
       <c r="N26">
-        <v>3.844388</v>
+        <v>5.006322</v>
       </c>
       <c r="O26">
-        <v>0.0610039610171349</v>
+        <v>0.06053597957783332</v>
       </c>
       <c r="P26">
-        <v>0.06100396101713489</v>
+        <v>0.06053597957783333</v>
       </c>
       <c r="Q26">
-        <v>25.13622466842267</v>
+        <v>38.716336673716</v>
       </c>
       <c r="R26">
-        <v>226.226022015804</v>
+        <v>348.4470300634439</v>
       </c>
       <c r="S26">
-        <v>0.02828721791837109</v>
+        <v>0.03284009372974456</v>
       </c>
       <c r="T26">
-        <v>0.02828721791837108</v>
+        <v>0.03284009372974456</v>
       </c>
     </row>
     <row r="27" spans="1:20">
@@ -2093,16 +2093,16 @@
         <v>1</v>
       </c>
       <c r="G27">
-        <v>19.615261</v>
+        <v>23.20046733333333</v>
       </c>
       <c r="H27">
-        <v>58.845783</v>
+        <v>69.60140199999999</v>
       </c>
       <c r="I27">
-        <v>0.4636947740233741</v>
+        <v>0.5424888464474396</v>
       </c>
       <c r="J27">
-        <v>0.4636947740233741</v>
+        <v>0.5424888464474396</v>
       </c>
       <c r="K27">
         <v>3</v>
@@ -2117,22 +2117,22 @@
         <v>16.660129</v>
       </c>
       <c r="O27">
-        <v>0.2643681803336288</v>
+        <v>0.2014527289511279</v>
       </c>
       <c r="P27">
-        <v>0.2643681803336288</v>
+        <v>0.201452728951128</v>
       </c>
       <c r="Q27">
-        <v>108.9309262095563</v>
+        <v>128.8409262112064</v>
       </c>
       <c r="R27">
-        <v>980.378335886007</v>
+        <v>1159.568335900858</v>
       </c>
       <c r="S27">
-        <v>0.1225861436387726</v>
+        <v>0.1092858585423861</v>
       </c>
       <c r="T27">
-        <v>0.1225861436387726</v>
+        <v>0.1092858585423861</v>
       </c>
     </row>
     <row r="28" spans="1:20">
@@ -2155,16 +2155,16 @@
         <v>1</v>
       </c>
       <c r="G28">
-        <v>19.615261</v>
+        <v>23.20046733333333</v>
       </c>
       <c r="H28">
-        <v>58.845783</v>
+        <v>69.60140199999999</v>
       </c>
       <c r="I28">
-        <v>0.4636947740233741</v>
+        <v>0.5424888464474396</v>
       </c>
       <c r="J28">
-        <v>0.4636947740233741</v>
+        <v>0.5424888464474396</v>
       </c>
       <c r="K28">
         <v>3</v>
@@ -2173,28 +2173,28 @@
         <v>1</v>
       </c>
       <c r="M28">
-        <v>5.652582666666667</v>
+        <v>9.526858666666667</v>
       </c>
       <c r="N28">
-        <v>16.957748</v>
+        <v>28.580576</v>
       </c>
       <c r="O28">
-        <v>0.2690908924724553</v>
+        <v>0.3455936643824974</v>
       </c>
       <c r="P28">
-        <v>0.2690908924724552</v>
+        <v>0.3455936643824974</v>
       </c>
       <c r="Q28">
-        <v>110.8768843307427</v>
+        <v>221.0275732852836</v>
       </c>
       <c r="R28">
-        <v>997.8919589766841</v>
+        <v>1989.248159567552</v>
       </c>
       <c r="S28">
-        <v>0.1247760405767632</v>
+        <v>0.1874807083304046</v>
       </c>
       <c r="T28">
-        <v>0.1247760405767632</v>
+        <v>0.1874807083304046</v>
       </c>
     </row>
     <row r="29" spans="1:20">
@@ -2217,16 +2217,16 @@
         <v>1</v>
       </c>
       <c r="G29">
-        <v>19.615261</v>
+        <v>23.20046733333333</v>
       </c>
       <c r="H29">
-        <v>58.845783</v>
+        <v>69.60140199999999</v>
       </c>
       <c r="I29">
-        <v>0.4636947740233741</v>
+        <v>0.5424888464474396</v>
       </c>
       <c r="J29">
-        <v>0.4636947740233741</v>
+        <v>0.5424888464474396</v>
       </c>
       <c r="K29">
         <v>3</v>
@@ -2235,28 +2235,28 @@
         <v>1</v>
       </c>
       <c r="M29">
-        <v>2.234552</v>
+        <v>2.732583</v>
       </c>
       <c r="N29">
-        <v>6.703656</v>
+        <v>8.197749</v>
       </c>
       <c r="O29">
-        <v>0.1063757272409243</v>
+        <v>0.0991264177670161</v>
       </c>
       <c r="P29">
-        <v>0.1063757272409243</v>
+        <v>0.0991264177670161</v>
       </c>
       <c r="Q29">
-        <v>43.831320698072</v>
+        <v>63.397202627122</v>
       </c>
       <c r="R29">
-        <v>394.481886282648</v>
+        <v>570.5748236440979</v>
       </c>
       <c r="S29">
-        <v>0.04932586880455245</v>
+        <v>0.05377497602689554</v>
       </c>
       <c r="T29">
-        <v>0.04932586880455245</v>
+        <v>0.05377497602689554</v>
       </c>
     </row>
     <row r="30" spans="1:20">
@@ -2279,16 +2279,16 @@
         <v>1</v>
       </c>
       <c r="G30">
-        <v>19.615261</v>
+        <v>23.20046733333333</v>
       </c>
       <c r="H30">
-        <v>58.845783</v>
+        <v>69.60140199999999</v>
       </c>
       <c r="I30">
-        <v>0.4636947740233741</v>
+        <v>0.5424888464474396</v>
       </c>
       <c r="J30">
-        <v>0.4636947740233741</v>
+        <v>0.5424888464474396</v>
       </c>
       <c r="K30">
         <v>3</v>
@@ -2297,28 +2297,28 @@
         <v>1</v>
       </c>
       <c r="M30">
-        <v>3.032031</v>
+        <v>2.300806</v>
       </c>
       <c r="N30">
-        <v>9.096093</v>
+        <v>6.902418</v>
       </c>
       <c r="O30">
-        <v>0.1443396719530478</v>
+        <v>0.08346339589935868</v>
       </c>
       <c r="P30">
-        <v>0.1443396719530478</v>
+        <v>0.08346339589935868</v>
       </c>
       <c r="Q30">
-        <v>59.474079425091</v>
+        <v>53.37977444333733</v>
       </c>
       <c r="R30">
-        <v>535.266714825819</v>
+        <v>480.4179699900359</v>
       </c>
       <c r="S30">
-        <v>0.06692955156887645</v>
+        <v>0.04527796136202904</v>
       </c>
       <c r="T30">
-        <v>0.06692955156887644</v>
+        <v>0.04527796136202904</v>
       </c>
     </row>
     <row r="31" spans="1:20">
@@ -2341,16 +2341,16 @@
         <v>1</v>
       </c>
       <c r="G31">
-        <v>19.615261</v>
+        <v>23.20046733333333</v>
       </c>
       <c r="H31">
-        <v>58.845783</v>
+        <v>69.60140199999999</v>
       </c>
       <c r="I31">
-        <v>0.4636947740233741</v>
+        <v>0.5424888464474396</v>
       </c>
       <c r="J31">
-        <v>0.4636947740233741</v>
+        <v>0.5424888464474396</v>
       </c>
       <c r="K31">
         <v>3</v>
@@ -2359,28 +2359,28 @@
         <v>1</v>
       </c>
       <c r="M31">
-        <v>3.252216</v>
+        <v>5.784249333333332</v>
       </c>
       <c r="N31">
-        <v>9.756648</v>
+        <v>17.352748</v>
       </c>
       <c r="O31">
-        <v>0.154821566982809</v>
+        <v>0.2098278134221666</v>
       </c>
       <c r="P31">
-        <v>0.154821566982809</v>
+        <v>0.2098278134221666</v>
       </c>
       <c r="Q31">
-        <v>63.793065668376</v>
+        <v>134.1972877058551</v>
       </c>
       <c r="R31">
-        <v>574.137591015384</v>
+        <v>1207.775589352696</v>
       </c>
       <c r="S31">
-        <v>0.07178995151603829</v>
+        <v>0.1138292484559797</v>
       </c>
       <c r="T31">
-        <v>0.07178995151603829</v>
+        <v>0.1138292484559797</v>
       </c>
     </row>
     <row r="32" spans="1:20">
@@ -2403,16 +2403,16 @@
         <v>1</v>
       </c>
       <c r="G32">
-        <v>4.868486</v>
+        <v>1.471845</v>
       </c>
       <c r="H32">
-        <v>14.605458</v>
+        <v>4.415535</v>
       </c>
       <c r="I32">
-        <v>0.1150885280397727</v>
+        <v>0.034415664336737</v>
       </c>
       <c r="J32">
-        <v>0.1150885280397727</v>
+        <v>0.034415664336737</v>
       </c>
       <c r="K32">
         <v>3</v>
@@ -2421,28 +2421,28 @@
         <v>1</v>
       </c>
       <c r="M32">
-        <v>1.281462666666667</v>
+        <v>1.668774</v>
       </c>
       <c r="N32">
-        <v>3.844388</v>
+        <v>5.006322</v>
       </c>
       <c r="O32">
-        <v>0.0610039610171349</v>
+        <v>0.06053597957783332</v>
       </c>
       <c r="P32">
-        <v>0.06100396101713489</v>
+        <v>0.06053597957783333</v>
       </c>
       <c r="Q32">
-        <v>6.238783052189334</v>
+        <v>2.45617666803</v>
       </c>
       <c r="R32">
-        <v>56.149047469704</v>
+        <v>22.10559001227</v>
       </c>
       <c r="S32">
-        <v>0.007020856078057732</v>
+        <v>0.002083385953446277</v>
       </c>
       <c r="T32">
-        <v>0.007020856078057731</v>
+        <v>0.002083385953446278</v>
       </c>
     </row>
     <row r="33" spans="1:20">
@@ -2465,16 +2465,16 @@
         <v>1</v>
       </c>
       <c r="G33">
-        <v>4.868486</v>
+        <v>1.471845</v>
       </c>
       <c r="H33">
-        <v>14.605458</v>
+        <v>4.415535</v>
       </c>
       <c r="I33">
-        <v>0.1150885280397727</v>
+        <v>0.034415664336737</v>
       </c>
       <c r="J33">
-        <v>0.1150885280397727</v>
+        <v>0.034415664336737</v>
       </c>
       <c r="K33">
         <v>3</v>
@@ -2489,22 +2489,22 @@
         <v>16.660129</v>
       </c>
       <c r="O33">
-        <v>0.2643681803336288</v>
+        <v>0.2014527289511279</v>
       </c>
       <c r="P33">
-        <v>0.2643681803336288</v>
+        <v>0.201452728951128</v>
       </c>
       <c r="Q33">
-        <v>27.03653493156467</v>
+        <v>8.173709189335</v>
       </c>
       <c r="R33">
-        <v>243.328814384082</v>
+        <v>73.56338270401501</v>
       </c>
       <c r="S33">
-        <v>0.03042574473515053</v>
+        <v>0.006933129499301678</v>
       </c>
       <c r="T33">
-        <v>0.03042574473515053</v>
+        <v>0.00693312949930168</v>
       </c>
     </row>
     <row r="34" spans="1:20">
@@ -2527,16 +2527,16 @@
         <v>1</v>
       </c>
       <c r="G34">
-        <v>4.868486</v>
+        <v>1.471845</v>
       </c>
       <c r="H34">
-        <v>14.605458</v>
+        <v>4.415535</v>
       </c>
       <c r="I34">
-        <v>0.1150885280397727</v>
+        <v>0.034415664336737</v>
       </c>
       <c r="J34">
-        <v>0.1150885280397727</v>
+        <v>0.034415664336737</v>
       </c>
       <c r="K34">
         <v>3</v>
@@ -2545,28 +2545,28 @@
         <v>1</v>
       </c>
       <c r="M34">
-        <v>5.652582666666667</v>
+        <v>9.526858666666667</v>
       </c>
       <c r="N34">
-        <v>16.957748</v>
+        <v>28.580576</v>
       </c>
       <c r="O34">
-        <v>0.2690908924724553</v>
+        <v>0.3455936643824974</v>
       </c>
       <c r="P34">
-        <v>0.2690908924724552</v>
+        <v>0.3455936643824974</v>
       </c>
       <c r="Q34">
-        <v>27.51951957650934</v>
+        <v>14.02205929424</v>
       </c>
       <c r="R34">
-        <v>247.675676188584</v>
+        <v>126.19853364816</v>
       </c>
       <c r="S34">
-        <v>0.03096927472356363</v>
+        <v>0.01189383555029097</v>
       </c>
       <c r="T34">
-        <v>0.03096927472356363</v>
+        <v>0.01189383555029097</v>
       </c>
     </row>
     <row r="35" spans="1:20">
@@ -2589,16 +2589,16 @@
         <v>1</v>
       </c>
       <c r="G35">
-        <v>4.868486</v>
+        <v>1.471845</v>
       </c>
       <c r="H35">
-        <v>14.605458</v>
+        <v>4.415535</v>
       </c>
       <c r="I35">
-        <v>0.1150885280397727</v>
+        <v>0.034415664336737</v>
       </c>
       <c r="J35">
-        <v>0.1150885280397727</v>
+        <v>0.034415664336737</v>
       </c>
       <c r="K35">
         <v>3</v>
@@ -2607,28 +2607,28 @@
         <v>1</v>
       </c>
       <c r="M35">
-        <v>2.234552</v>
+        <v>2.732583</v>
       </c>
       <c r="N35">
-        <v>6.703656</v>
+        <v>8.197749</v>
       </c>
       <c r="O35">
-        <v>0.1063757272409243</v>
+        <v>0.0991264177670161</v>
       </c>
       <c r="P35">
-        <v>0.1063757272409243</v>
+        <v>0.0991264177670161</v>
       </c>
       <c r="Q35">
-        <v>10.878885128272</v>
+        <v>4.021938625635</v>
       </c>
       <c r="R35">
-        <v>97.90996615444799</v>
+        <v>36.197447630715</v>
       </c>
       <c r="S35">
-        <v>0.01224262586731833</v>
+        <v>0.003411501520772789</v>
       </c>
       <c r="T35">
-        <v>0.01224262586731833</v>
+        <v>0.003411501520772789</v>
       </c>
     </row>
     <row r="36" spans="1:20">
@@ -2651,16 +2651,16 @@
         <v>1</v>
       </c>
       <c r="G36">
-        <v>4.868486</v>
+        <v>1.471845</v>
       </c>
       <c r="H36">
-        <v>14.605458</v>
+        <v>4.415535</v>
       </c>
       <c r="I36">
-        <v>0.1150885280397727</v>
+        <v>0.034415664336737</v>
       </c>
       <c r="J36">
-        <v>0.1150885280397727</v>
+        <v>0.034415664336737</v>
       </c>
       <c r="K36">
         <v>3</v>
@@ -2669,28 +2669,28 @@
         <v>1</v>
       </c>
       <c r="M36">
-        <v>3.032031</v>
+        <v>2.300806</v>
       </c>
       <c r="N36">
-        <v>9.096093</v>
+        <v>6.902418</v>
       </c>
       <c r="O36">
-        <v>0.1443396719530478</v>
+        <v>0.08346339589935868</v>
       </c>
       <c r="P36">
-        <v>0.1443396719530478</v>
+        <v>0.08346339589935868</v>
       </c>
       <c r="Q36">
-        <v>14.761400475066</v>
+        <v>3.38642980707</v>
       </c>
       <c r="R36">
-        <v>132.852604275594</v>
+        <v>30.47786826363</v>
       </c>
       <c r="S36">
-        <v>0.01661184038281994</v>
+        <v>0.00287244821767652</v>
       </c>
       <c r="T36">
-        <v>0.01661184038281993</v>
+        <v>0.00287244821767652</v>
       </c>
     </row>
     <row r="37" spans="1:20">
@@ -2713,16 +2713,16 @@
         <v>1</v>
       </c>
       <c r="G37">
-        <v>4.868486</v>
+        <v>1.471845</v>
       </c>
       <c r="H37">
-        <v>14.605458</v>
+        <v>4.415535</v>
       </c>
       <c r="I37">
-        <v>0.1150885280397727</v>
+        <v>0.034415664336737</v>
       </c>
       <c r="J37">
-        <v>0.1150885280397727</v>
+        <v>0.034415664336737</v>
       </c>
       <c r="K37">
         <v>3</v>
@@ -2731,28 +2731,28 @@
         <v>1</v>
       </c>
       <c r="M37">
-        <v>3.252216</v>
+        <v>5.784249333333332</v>
       </c>
       <c r="N37">
-        <v>9.756648</v>
+        <v>17.352748</v>
       </c>
       <c r="O37">
-        <v>0.154821566982809</v>
+        <v>0.2098278134221666</v>
       </c>
       <c r="P37">
-        <v>0.154821566982809</v>
+        <v>0.2098278134221666</v>
       </c>
       <c r="Q37">
-        <v>15.833368064976</v>
+        <v>8.513518460019998</v>
       </c>
       <c r="R37">
-        <v>142.500312584784</v>
+        <v>76.62166614018</v>
       </c>
       <c r="S37">
-        <v>0.01781818625286256</v>
+        <v>0.007221363595248763</v>
       </c>
       <c r="T37">
-        <v>0.01781818625286256</v>
+        <v>0.007221363595248764</v>
       </c>
     </row>
   </sheetData>
